--- a/I SEMESTRE/Taller de Programacion/TP#1/Plantillas_de_Comunicación/Plantilla_Bitacora_ResoluciónProb.xlsx
+++ b/I SEMESTRE/Taller de Programacion/TP#1/Plantillas_de_Comunicación/Plantilla_Bitacora_ResoluciónProb.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621541AC-0C88-4957-8688-0C0E56656171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B6FDCE-58D0-4E15-8F86-FD5CF0039DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Tecnológico de Costa Rica</t>
   </si>
@@ -39,13 +39,49 @@
   </si>
   <si>
     <t>IC-1803 Taller de Programación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El programa no encontraba los archivos </t>
+  </si>
+  <si>
+    <t>Abrir la tarea programada desde el archivo unico para ella y asi el programa solo vera lo de esa carpeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la base de datos, los datos no aparecian por mas de no dar error </t>
+  </si>
+  <si>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <t>1 hora</t>
+  </si>
+  <si>
+    <t>No creaba los tres archivos de los que se aplazaban, solo uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habia un error de logica que no pegaba un nombre tras otro si no que los remplazaba, habia que cambiar eso y ya </t>
+  </si>
+  <si>
+    <t>Habia un problema en el cual al crear un archivo no le cambie el nombre por loo cual creaba los 3 igual y los sobreescribia, solo era crear tres pro aparete y cambiar el nombre por aparte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando aparecia un error, las funciones no se dejaban de llamar a si mismas </t>
+  </si>
+  <si>
+    <t>Habia un problema con el nombre de algunas funciones y se estaban llamando entre ellas sin parar, con cambiar el nombre de algunas y mejorar los returns se arreglo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El XML, no mostraba lso datos correctos </t>
+  </si>
+  <si>
+    <t>Un error con el como identificaba  posiciones de las notas en la base de datos hacia que no le pusiera el estado a ningun estudientes, puse un formato fijo y agarraba el ultimo se arreglo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +103,14 @@
       <i/>
       <u/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -127,6 +171,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,9 +193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,9 +233,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,26 +268,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,26 +303,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,20 +479,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -513,55 +527,103 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>45780</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45780</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>45780</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45780</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>45781</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45781</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="6">
+        <v>45781</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45781</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="6">
+        <v>45781</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45781</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -573,6 +635,19 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
+    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
